--- a/autoConditions/train1Block7.xlsx
+++ b/autoConditions/train1Block7.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/23_patoko.wav</t>
+          <t>trainaudio/16_kotapi.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/23_lemon.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/16_kotapi.wav</t>
+          <t>trainaudio/03_kikita.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/03_box.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/19_papipi.wav</t>
+          <t>trainaudio/01_kitipi.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/04_kitoti.wav</t>
+          <t>trainaudio/26_kapako.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/04_ladder.png</t>
+          <t>pngimages/26_pineapple.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/02_kitipi.wav</t>
+          <t>trainaudio/19_papipi.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/19_burger.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/24_takopa.wav</t>
+          <t>trainaudio/06_titoka.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/06_tent.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block7.xlsx
+++ b/autoConditions/train1Block7.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainaudio/16_kotapi.wav</t>
+          <t>trainingaudio/07_pitapi2.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/16_icecream.png</t>
+          <t>pngimages/07_suitcase.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainaudio/03_kikita.wav</t>
+          <t>trainingaudio/09_tipata2.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/03_box.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainaudio/01_kitipi.wav</t>
+          <t>trainingaudio/27_pakapa1.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/01_gift.png</t>
+          <t>pngimages/27_kiwi.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainaudio/26_kapako.wav</t>
+          <t>trainingaudio/02_pitito3.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/26_pineapple.png</t>
+          <t>pngimages/02_pallet.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainaudio/19_papipi.wav</t>
+          <t>trainingaudio/13_kopopi1.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/19_burger.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainaudio/06_titoka.wav</t>
+          <t>trainingaudio/24_takopa1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/06_tent.png</t>
+          <t>pngimages/24_banana.png</t>
         </is>
       </c>
     </row>

--- a/autoConditions/train1Block7.xlsx
+++ b/autoConditions/train1Block7.xlsx
@@ -449,72 +449,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>trainingaudio/07_pitapi2.wav</t>
+          <t>trainingaudio/01_kitipi1.wav</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pngimages/07_suitcase.png</t>
+          <t>pngimages/01_gift.png</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>trainingaudio/09_tipata2.wav</t>
+          <t>trainingaudio/13_kopopi1.wav</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pngimages/09_plane.png</t>
+          <t>pngimages/13_toast.png</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>trainingaudio/27_pakapa1.wav</t>
+          <t>trainingaudio/15_kopota3.wav</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pngimages/27_kiwi.png</t>
+          <t>pngimages/15_barrel.png</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>trainingaudio/02_pitito3.wav</t>
+          <t>trainingaudio/16_kotapi2.wav</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pngimages/02_pallet.png</t>
+          <t>pngimages/16_icecream.png</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>trainingaudio/13_kopopi1.wav</t>
+          <t>trainingaudio/09_tipata2.wav</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pngimages/13_toast.png</t>
+          <t>pngimages/09_plane.png</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>trainingaudio/24_takopa1.wav</t>
+          <t>trainingaudio/22_kakoki1.wav</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pngimages/24_banana.png</t>
+          <t>pngimages/22_egg.png</t>
         </is>
       </c>
     </row>
